--- a/medicine/Bioéthique/Jean-Yves_Nau/Jean-Yves_Nau.xlsx
+++ b/medicine/Bioéthique/Jean-Yves_Nau/Jean-Yves_Nau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Yves Nau, né le 4 février 1952 à Ingrandes-de-Touraine en Indre-et-Loire et mort le 8 novembre 2020 à Chambray-lès-Tours[1],[2],[3], est un médecin et journaliste scientifique français spécialiste des questions de médecine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Yves Nau, né le 4 février 1952 à Ingrandes-de-Touraine en Indre-et-Loire et mort le 8 novembre 2020 à Chambray-lès-Tours est un médecin et journaliste scientifique français spécialiste des questions de médecine.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire d'Ingrandes-de-Touraine et issu d'une famille de vignerons, Jean-Yves Nau a tout d'abord été instituteur avant de réaliser des études de médecine puis de s'orienter vers le journalisme et d'entrer au quotidien Le Monde en 1980[2],[3]. Il y travaille pendant près de trente ans, comme journaliste scientifique, spécialiste des questions de médecine et de biologie, tout en collaborant ponctuellement à La Revue du praticien, à la Revue médicale suisse et La Nouvelle République du Centre Ouest. Il intègre en février 2009 l'équipe scientifique de la version française en ligne du magazine Slate en tant que chroniqueur.
-Il est également chargé pour l'année 2010-2011 de la première chaire de « Journalisme et santé publique » de l'École des hautes études en santé publique (EHESP)[4]. Il a ensuite tenu un blog « journalisme et santé publique »[5].
-Il arrête la tenue de son blog le 20 septembre 2020 ; sa mort est annoncée le 8 novembre 2020[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d'Ingrandes-de-Touraine et issu d'une famille de vignerons, Jean-Yves Nau a tout d'abord été instituteur avant de réaliser des études de médecine puis de s'orienter vers le journalisme et d'entrer au quotidien Le Monde en 1980,. Il y travaille pendant près de trente ans, comme journaliste scientifique, spécialiste des questions de médecine et de biologie, tout en collaborant ponctuellement à La Revue du praticien, à la Revue médicale suisse et La Nouvelle République du Centre Ouest. Il intègre en février 2009 l'équipe scientifique de la version française en ligne du magazine Slate en tant que chroniqueur.
+Il est également chargé pour l'année 2010-2011 de la première chaire de « Journalisme et santé publique » de l'École des hautes études en santé publique (EHESP). Il a ensuite tenu un blog « journalisme et santé publique ».
+Il arrête la tenue de son blog le 20 septembre 2020 ; sa mort est annoncée le 8 novembre 2020.
 </t>
         </is>
       </c>
@@ -546,15 +560,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Journal de la vache folle, Jean-Yves Nau, éditions Georg, 2001  (ISBN 978-2825707340).
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Journal de la vache folle, Jean-Yves Nau, éditions Georg, 2001  (ISBN 978-2825707340).
 Bioéthique, avis de tempêtes : Les nouveaux enjeux de la maîtrise du vivant, Hervé Chneiweiss et Jean-Yves Nau, éditions Alvik, 2003  (ISBN 978-2914833110).
 Les Maladies d'aujourd'hui. De la maladie d'Alzheimer au sida, Paul Benkimoun, Élisabeth Bursaux, Jean-Yves Nau, et Chantal Gueniot, J'ai lu, 2003  (ISBN 978-2290328170).
 Tout ce que vous ne savez pas sur la chicha, Bertrand Dautzenberg et Jean Yves Nau, éditions Margaux-Orange, 2007  (ISBN 978-2914206297).
 Jean Bardet : faim de mots, Jean Bardet et Jean-Yves Nau, éditions Glénat, 2008  (ISBN 978-2723462174).
-H1 N1, journal d'une pandémie, Antoine Flahault et Jean-Yves Nau, Plon, 2009  (ISBN 978-2259208390).
-Articles
-« La véritable expérience du Dr James Lind », Revue médicale suisse, vol. 8, 2012.</t>
+H1 N1, journal d'une pandémie, Antoine Flahault et Jean-Yves Nau, Plon, 2009  (ISBN 978-2259208390).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Yves_Nau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Yves_Nau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« La véritable expérience du Dr James Lind », Revue médicale suisse, vol. 8, 2012.</t>
         </is>
       </c>
     </row>
